--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410334.3225446235</v>
+        <v>-412823.0615741402</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>300.9887210110789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>148.654675616859</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>56.6366300351259</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>153.7665065845759</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>81.46084344268463</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>244.844831786626</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>115.7489098132463</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>114.3606976213222</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>105.8075447817137</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>190.595868170371</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>212.1989152844497</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.80487962572832</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1080157852432</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182133</v>
+        <v>21.35866177150488</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>4.444394634327962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>68.62151774815479</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>44.30292280757614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>96.36494467178679</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>80.88538973874932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>201.7490817309711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>22.65115569188744</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>128.3548363691468</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1584054594684</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>134.3542165280278</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>188.0134287946025</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.52295781333244</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,16 +3478,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>19.67525987919339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.407367302544</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C2" t="n">
-        <v>1673.378356180242</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.112657573491</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E2" t="n">
-        <v>929.324404975247</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539435</v>
+        <v>2698.598211587127</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278355</v>
+        <v>2325.132453326047</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.407367302544</v>
+        <v>1934.993121350235</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218339</v>
+        <v>221.8318200529672</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>294.5016673302007</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218339</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218339</v>
+        <v>403.4802848832069</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.010158258596</v>
+        <v>1498.154181889228</v>
       </c>
       <c r="D5" t="n">
-        <v>915.744459651846</v>
+        <v>1139.888483282477</v>
       </c>
       <c r="E5" t="n">
-        <v>529.9562070536017</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>523.0107063043982</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.7277411117484</v>
+        <v>182.0279726153371</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>182.0279726153371</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>182.0279726153371</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>182.0279726153371</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>182.0279726153371</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V7" t="n">
-        <v>310.7277411117484</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W7" t="n">
-        <v>310.7277411117484</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X7" t="n">
-        <v>310.7277411117484</v>
+        <v>182.0279726153371</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.7277411117484</v>
+        <v>182.0279726153371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2126.729101932993</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1534.697961406731</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1148.909708808487</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>737.9238040188795</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>322.851353863876</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997115</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2513.328941997115</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2513.328941997115</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.6433230382936</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C10" t="n">
-        <v>223.6433230382936</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>223.6433230382936</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>223.6433230382936</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4960,52 +4960,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877106</v>
+        <v>726.8385050250099</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877106</v>
+        <v>726.8385050250099</v>
       </c>
       <c r="V10" t="n">
-        <v>444.4359021818237</v>
+        <v>726.8385050250099</v>
       </c>
       <c r="W10" t="n">
-        <v>444.4359021818237</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="X10" t="n">
-        <v>444.4359021818237</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.6433230382936</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5130,13 +5130,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057254</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778185</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079495</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935965</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,19 +6306,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961267</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935562</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>835.5837926935562</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>685.4671532812205</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>537.5540596988274</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>390.664112200917</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>223.4680129157969</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991042</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711973</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V34" t="n">
-        <v>1565.519003264322</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.101833227361</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X34" t="n">
-        <v>1048.112282329344</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.112282329344</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7087,58 +7087,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2399.970196900127</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2217.115362555031</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1997.513897577973</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.43867092217</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1708.43867092217</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1419.02150088521</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311994</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>64.28417075992867</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>254.4780130835956</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>292.6043386822871</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>13.48031451405194</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>108.3081818887573</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2652607547092</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>77.81244489841438</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>190.1580536648042</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>123.7828069546817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>11.93987647707706</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>79.42624789262638</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>83.05123379926047</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>64.1242145292255</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.85228889678922</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>147.5715612194344</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350415</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="F2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="F2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="L2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="M2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="L2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="M2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35180.04910159844</v>
+        <v>35180.04910159837</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26427,37 +26427,37 @@
         <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687965</v>
-      </c>
       <c r="O4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220315.809455542</v>
+        <v>-1220571.678694953</v>
       </c>
       <c r="C6" t="n">
-        <v>85833.93478705313</v>
+        <v>85833.93478705343</v>
       </c>
       <c r="D6" t="n">
-        <v>85833.93478705366</v>
+        <v>85833.93478705343</v>
       </c>
       <c r="E6" t="n">
-        <v>-159470.32174664</v>
+        <v>-159505.0596720754</v>
       </c>
       <c r="F6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352796</v>
       </c>
       <c r="G6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352797</v>
       </c>
       <c r="H6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352796</v>
       </c>
       <c r="I6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352797</v>
       </c>
       <c r="J6" t="n">
-        <v>-51589.06233656192</v>
+        <v>-51623.80026199789</v>
       </c>
       <c r="K6" t="n">
-        <v>165942.1400607151</v>
+        <v>165907.4021352797</v>
       </c>
       <c r="L6" t="n">
-        <v>165942.1400607155</v>
+        <v>165907.4021352797</v>
       </c>
       <c r="M6" t="n">
-        <v>80887.11212520364</v>
+        <v>80852.37419976779</v>
       </c>
       <c r="N6" t="n">
-        <v>165942.1400607156</v>
+        <v>165907.4021352796</v>
       </c>
       <c r="O6" t="n">
-        <v>141345.2863349791</v>
+        <v>141345.2863349789</v>
       </c>
       <c r="P6" t="n">
         <v>160773.0043286107</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>127.4523569886662</v>
       </c>
       <c r="F2" t="n">
-        <v>258.2213701248525</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>137.0855382856358</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>295.1728158402072</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>51.66511063770604</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>146.3300985421143</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>174.6770236006365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>82.40884910287076</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>134.6161683972029</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>27.44093349092597</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,28 +32078,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>303.4024373464761</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127089</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>614.59004755871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>186.6878763515704</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>165.5609983721171</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983787</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>471.9938031142656</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>44.09163190712597</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
